--- a/Schedule/NON TECHNICAL.xlsx
+++ b/Schedule/NON TECHNICAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02. CSI\2022-23\7th Sem\3. Odd Sem Events\Coordinator Selections Report\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EFB9A4-70AB-418E-B0E8-DFC3A224CE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AB3425-02B1-4363-A6DD-C140DD0F725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58110A58-2AA1-4A07-8231-148806CA958C}"/>
   </bookViews>
@@ -379,40 +379,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -431,48 +403,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBC2E6E-DD7C-4D30-B9A8-BB175F893E23}">
-  <dimension ref="A1:M279"/>
+  <dimension ref="A1:M281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -807,960 +769,972 @@
     <col min="10" max="10" width="19.5546875" customWidth="1"/>
     <col min="11" max="11" width="14.109375" customWidth="1"/>
     <col min="12" max="12" width="14.21875" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>8919648544</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>6304641744</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>8106846448</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>8074912664</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="3">
         <v>8688007523</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M7" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9963651573</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6305436087</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7330742770</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9390181824</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9392809628</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3">
+        <v>9346180234</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3">
+        <v>9692435646</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9390980637</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3">
+        <v>9014629206</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9701825008</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7815984599</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="3">
+        <v>8328534414</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3">
+        <v>8919593285</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5">
-        <v>9963651573</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H22" s="3">
+        <v>8688041102</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="B23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="3">
+        <v>7032761136</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5">
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="5">
-        <v>6305436087</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="3">
+        <v>9701639295</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="L24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="5">
-        <v>7330742770</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="H25" s="3">
+        <v>9392483630</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="5">
-        <v>9390181824</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="J25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="L25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="5">
-        <v>9392809628</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="5">
-        <v>9346180234</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="5">
-        <v>9692435646</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="5">
-        <v>9390980637</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="5">
-        <v>9014629206</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="5">
-        <v>9701825008</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="5">
-        <v>7815984599</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="5">
-        <v>8328534414</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="5">
-        <v>8919593285</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="5">
-        <v>8688041102</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="5">
-        <v>7032761136</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="5">
-        <v>9701639295</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="5">
-        <v>9392483630</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M26"/>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M27"/>
@@ -2518,12 +2492,18 @@
     <row r="278" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M278"/>
     </row>
-    <row r="279" spans="13:13" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M279"/>
     </row>
+    <row r="280" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M280"/>
+    </row>
+    <row r="281" spans="13:13" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M281"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:L24">
-    <sortCondition ref="L2:L24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:L26">
+    <sortCondition ref="L2:L26"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
